--- a/ResultadoEleicoesDistritos/ÉVORA_MONTEMOR-O-NOVO.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_MONTEMOR-O-NOVO.xlsx
@@ -597,64 +597,64 @@
         <v>4091</v>
       </c>
       <c r="H2" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I2" t="n">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="J2" t="n">
-        <v>1762</v>
+        <v>1710</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="T2" t="n">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="U2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>2610</v>
+        <v>2597</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2625</v>
+        <v>2596</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
